--- a/【仕様案】テンプレート.xlsx
+++ b/【仕様案】テンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishiinaoki/github/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44715EB6-4B00-F044-93E2-F06634898A3D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E189C1-91BA-A54D-BAA6-0F2971C731EA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
